--- a/Резы/Респа для МЕ-81б на 2019 год.xlsx
+++ b/Резы/Респа для МЕ-81б на 2019 год.xlsx
@@ -956,8 +956,8 @@
       <c r="I9" s="11" t="inlineStr">
         <is>
           <t>210
-212
-329</t>
+329
+410</t>
         </is>
       </c>
       <c r="J9" s="11" t="inlineStr">
@@ -1209,9 +1209,9 @@
       <c r="I17" s="11" t="inlineStr">
         <is>
           <t>АКТ_зал
-АКТ_зал
 210
-205</t>
+212
+412</t>
         </is>
       </c>
       <c r="J17" s="11" t="inlineStr">
@@ -1750,7 +1750,7 @@
       <c r="H9" s="11" t="inlineStr">
         <is>
           <t>210
-212</t>
+329</t>
         </is>
       </c>
       <c r="I9" s="11" t="inlineStr">
@@ -1993,7 +1993,7 @@
       <c r="F17" s="13" t="n"/>
       <c r="G17" s="14" t="n"/>
       <c r="H17" s="11" t="n">
-        <v>412</v>
+        <v>303</v>
       </c>
       <c r="I17" s="11" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       <c r="I9" s="11" t="inlineStr">
         <is>
           <t>210
-212</t>
+329</t>
         </is>
       </c>
       <c r="J9" s="11" t="inlineStr">
@@ -2762,9 +2762,9 @@
       <c r="H17" s="16" t="n"/>
       <c r="I17" s="11" t="inlineStr">
         <is>
-          <t>АКТ_зал
-210
-412</t>
+          <t>210
+212
+303</t>
         </is>
       </c>
       <c r="J17" s="11" t="inlineStr">
@@ -2933,7 +2933,7 @@
     <col width="45.95" customWidth="1" min="5" max="5"/>
     <col width="43.05" customWidth="1" min="6" max="6"/>
     <col width="93.8" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
     <col width="26.5" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -3189,8 +3189,8 @@
       </c>
       <c r="H8" s="11" t="inlineStr">
         <is>
-          <t>210
-212</t>
+          <t>210, 212
+329, 331</t>
         </is>
       </c>
       <c r="I8" s="11" t="inlineStr">
@@ -3323,8 +3323,10 @@
         </is>
       </c>
       <c r="G12" s="6" t="n"/>
-      <c r="H12" s="3" t="n">
-        <v>403</v>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>403, 410</t>
+        </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
@@ -3414,7 +3416,7 @@
       </c>
       <c r="G15" s="16" t="n"/>
       <c r="H15" s="11" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I15" s="11" t="inlineStr">
         <is>

--- a/Резы/Респа для МЕ-81б на 2019 год.xlsx
+++ b/Резы/Респа для МЕ-81б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,24 +114,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -157,44 +157,44 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -240,14 +240,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -635,10 +635,10 @@
     <col width="98.14999999999999" customWidth="1" min="4" max="4"/>
     <col width="60.45" customWidth="1" min="5" max="5"/>
     <col width="92.34999999999999" customWidth="1" min="6" max="6"/>
-    <col width="23.5" customWidth="1" min="7" max="7"/>
+    <col width="35.8" customWidth="1" min="7" max="7"/>
     <col width="45.95" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="29.5" customWidth="1" min="10" max="10"/>
+    <col width="26.5" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
@@ -1208,7 +1208,7 @@
       <c r="H17" s="14" t="n"/>
       <c r="I17" s="11" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 210
 212
 412</t>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="J17" s="11" t="inlineStr">
         <is>
-          <t>Преображенский Ф.Ф.
+          <t>Мерзоцид Г.Ч.
 Кунавина Н.Е.
 Молокова Г.Ф.
 Корякова И.П.</t>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="34" customHeight="1">
+    <row r="21" ht="51" customHeight="1">
       <c r="A21" s="10" t="n"/>
       <c r="B21" s="11" t="n">
         <v>4</v>
@@ -1337,21 +1337,34 @@
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D21" s="16" t="n"/>
-      <c r="E21" s="17" t="n"/>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E21" s="14" t="n"/>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>Физика (спецглавы): ПР (общ)</t>
-        </is>
-      </c>
-      <c r="G21" s="16" t="n"/>
-      <c r="H21" s="17" t="n"/>
-      <c r="I21" s="11" t="n">
-        <v>403</v>
+          <t>Физика (спецглавы): ПР (общ)
+Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="G21" s="12" t="inlineStr">
+        <is>
+          <t>Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="H21" s="14" t="n"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>403
+317</t>
+        </is>
       </c>
       <c r="J21" s="11" t="inlineStr">
         <is>
-          <t>Ильиных Н.И.</t>
+          <t>Ильиных Н.И.
+Пузырева Д.П.</t>
         </is>
       </c>
     </row>
@@ -1361,31 +1374,31 @@
           <t>СБ</t>
         </is>
       </c>
-      <c r="B22" s="18" t="n">
+      <c r="B22" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="18" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
       <c r="D22" s="15" t="n"/>
-      <c r="I22" s="18" t="n"/>
-      <c r="J22" s="18" t="n"/>
+      <c r="I22" s="16" t="n"/>
+      <c r="J22" s="16" t="n"/>
     </row>
     <row r="23" ht="34" customHeight="1">
       <c r="A23" s="7" t="n"/>
-      <c r="B23" s="18" t="n">
+      <c r="B23" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="18" t="inlineStr">
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
       <c r="D23" s="15" t="n"/>
-      <c r="I23" s="18" t="n"/>
-      <c r="J23" s="18" t="n"/>
+      <c r="I23" s="16" t="n"/>
+      <c r="J23" s="16" t="n"/>
     </row>
     <row r="24" ht="34" customHeight="1">
       <c r="A24" s="10" t="n"/>
@@ -1397,10 +1410,10 @@
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D24" s="16" t="n"/>
-      <c r="E24" s="17" t="n"/>
-      <c r="F24" s="17" t="n"/>
-      <c r="G24" s="17" t="n"/>
+      <c r="D24" s="17" t="n"/>
+      <c r="E24" s="18" t="n"/>
+      <c r="F24" s="18" t="n"/>
+      <c r="G24" s="18" t="n"/>
       <c r="H24" s="12" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (2)</t>
@@ -1464,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2069,93 +2082,120 @@
       </c>
     </row>
     <row r="20" ht="34" customHeight="1">
-      <c r="A20" s="10" t="n"/>
-      <c r="B20" s="11" t="n">
+      <c r="A20" s="7" t="n"/>
+      <c r="B20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D20" s="16" t="n"/>
-      <c r="E20" s="12" t="inlineStr">
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Физика: ЛБ (3)</t>
         </is>
       </c>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="11" t="n">
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="3" t="n">
         <v>412</v>
       </c>
-      <c r="I20" s="11" t="inlineStr">
+      <c r="I20" s="3" t="inlineStr">
         <is>
           <t>Корякова И.П.</t>
         </is>
       </c>
     </row>
     <row r="21" ht="34" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="14" t="n"/>
+      <c r="H21" s="11" t="n">
+        <v>317</v>
+      </c>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Пузырева Д.П.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="34" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B22" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="18" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="H21" s="18" t="n"/>
-      <c r="I21" s="18" t="n"/>
-    </row>
-    <row r="22" ht="34" customHeight="1">
-      <c r="A22" s="7" t="n"/>
-      <c r="B22" s="18" t="n">
+      <c r="D22" s="15" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="n"/>
+    </row>
+    <row r="23" ht="34" customHeight="1">
+      <c r="A23" s="7" t="n"/>
+      <c r="B23" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="18" t="inlineStr">
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="H22" s="18" t="n"/>
-      <c r="I22" s="18" t="n"/>
-    </row>
-    <row r="23" ht="34" customHeight="1">
-      <c r="A23" s="10" t="n"/>
-      <c r="B23" s="11" t="n">
+      <c r="D23" s="15" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="n"/>
+    </row>
+    <row r="24" ht="34" customHeight="1">
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D23" s="12" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (2)</t>
         </is>
       </c>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="14" t="n"/>
-      <c r="G23" s="16" t="n"/>
-      <c r="H23" s="11" t="n">
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="14" t="n"/>
+      <c r="G24" s="17" t="n"/>
+      <c r="H24" s="11" t="n">
         <v>205</v>
       </c>
-      <c r="I23" s="11" t="inlineStr">
+      <c r="I24" s="11" t="inlineStr">
         <is>
           <t>Миннегалиева Т.В.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -2177,10 +2217,11 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A6:A9"/>
@@ -2197,7 +2238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2385,10 +2426,10 @@
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
         </is>
       </c>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="17" t="n"/>
-      <c r="G5" s="17" t="n"/>
-      <c r="H5" s="17" t="n"/>
+      <c r="E5" s="17" t="n"/>
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="18" t="n"/>
+      <c r="H5" s="18" t="n"/>
       <c r="I5" s="11" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
@@ -2629,9 +2670,9 @@
         </is>
       </c>
       <c r="E13" s="14" t="n"/>
-      <c r="F13" s="16" t="n"/>
-      <c r="G13" s="17" t="n"/>
-      <c r="H13" s="17" t="n"/>
+      <c r="F13" s="17" t="n"/>
+      <c r="G13" s="18" t="n"/>
+      <c r="H13" s="18" t="n"/>
       <c r="I13" s="10" t="n"/>
       <c r="J13" s="10" t="n"/>
     </row>
@@ -2759,7 +2800,7 @@
         </is>
       </c>
       <c r="G17" s="14" t="n"/>
-      <c r="H17" s="16" t="n"/>
+      <c r="H17" s="17" t="n"/>
       <c r="I17" s="11" t="inlineStr">
         <is>
           <t>210
@@ -2845,35 +2886,63 @@
       </c>
     </row>
     <row r="20" ht="34" customHeight="1">
-      <c r="A20" s="10" t="n"/>
-      <c r="B20" s="11" t="n">
+      <c r="A20" s="7" t="n"/>
+      <c r="B20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D20" s="12" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Физика: ЛБ (3)</t>
         </is>
       </c>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="16" t="n"/>
-      <c r="I20" s="11" t="n">
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="15" t="n"/>
+      <c r="I20" s="3" t="n">
         <v>412</v>
       </c>
-      <c r="J20" s="11" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>Корякова И.П.</t>
         </is>
       </c>
     </row>
+    <row r="21" ht="34" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
+      <c r="H21" s="14" t="n"/>
+      <c r="I21" s="11" t="n">
+        <v>317</v>
+      </c>
+      <c r="J21" s="11" t="inlineStr">
+        <is>
+          <t>Пузырева Д.П.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -2897,8 +2966,9 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:H21"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="A10:A13"/>
@@ -2915,7 +2985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -3407,14 +3477,14 @@
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="18" t="n"/>
       <c r="F15" s="12" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (2)</t>
         </is>
       </c>
-      <c r="G15" s="16" t="n"/>
+      <c r="G15" s="17" t="n"/>
       <c r="H15" s="11" t="n">
         <v>205</v>
       </c>
@@ -3483,34 +3553,60 @@
       </c>
     </row>
     <row r="18" ht="34" customHeight="1">
-      <c r="A18" s="10" t="n"/>
-      <c r="B18" s="11" t="n">
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D18" s="12" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Физика: ЛБ (3)</t>
         </is>
       </c>
-      <c r="E18" s="14" t="n"/>
-      <c r="F18" s="16" t="n"/>
-      <c r="G18" s="17" t="n"/>
-      <c r="H18" s="11" t="n">
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="15" t="n"/>
+      <c r="H18" s="3" t="n">
         <v>412</v>
       </c>
-      <c r="I18" s="11" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>Корякова И.П.</t>
         </is>
       </c>
     </row>
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D19" s="12" t="inlineStr">
+        <is>
+          <t>Час куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="14" t="n"/>
+      <c r="H19" s="11" t="n">
+        <v>317</v>
+      </c>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Пузырева Д.П.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:G4"/>
@@ -3530,8 +3626,9 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A5:A8"/>
